--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -35,29 +35,107 @@
     <t>Yudistira Dwi Nugraha</t>
   </si>
   <si>
-    <t>Database Design</t>
-  </si>
-  <si>
-    <t>Preprocessing Data</t>
-  </si>
-  <si>
-    <t>Model Interface</t>
-  </si>
-  <si>
-    <t>Modelling</t>
-  </si>
-  <si>
-    <t>Pertemuan 1</t>
-  </si>
-  <si>
-    <t>Pertemuan 2</t>
+    <r>
+      <t xml:space="preserve">Modelling </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(On Going)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Load and Cleaning </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(On Going)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Evaluasi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(On Going)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pre Processing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(On Going)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web App </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Waiting)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prepare Database </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Waiting)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +149,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -384,32 +470,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G4"/>
+  <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -421,8 +502,11 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -433,6 +517,9 @@
       </c>
       <c r="G4" t="s">
         <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -442,5 +529,6 @@
     <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xanxt\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projectPem.Mesin7A\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F882183-7F43-4BB9-9BA4-5320732E4D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6384"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>JOBDESC ANGGOTA</t>
   </si>
@@ -35,123 +36,66 @@
     <t>Yudistira Dwi Nugraha</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Modelling </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(On Going)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Load and Cleaning </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(On Going)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Evaluasi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(On Going)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pre Processing </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(On Going)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Web App </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Waiting)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Prepare Database </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Waiting)</t>
-    </r>
+    <t>Pertemuan 1</t>
+  </si>
+  <si>
+    <t>Pertemuan 2</t>
+  </si>
+  <si>
+    <t>Pertemuan 3</t>
+  </si>
+  <si>
+    <t>Pertemuan 4</t>
+  </si>
+  <si>
+    <t>Pertemuan 5</t>
+  </si>
+  <si>
+    <t>Pertemuan 6</t>
+  </si>
+  <si>
+    <t>Load and Cleaning (Done)</t>
+  </si>
+  <si>
+    <t>Gather Dataset (Done)</t>
+  </si>
+  <si>
+    <t>Build Model (Done)</t>
+  </si>
+  <si>
+    <t>Training Model (Done)</t>
+  </si>
+  <si>
+    <t>New Model 1 (Done)</t>
+  </si>
+  <si>
+    <t>Build Model(Done)</t>
+  </si>
+  <si>
+    <t>Final Model(On-Going)</t>
+  </si>
+  <si>
+    <t>Pre Processing (Done)</t>
+  </si>
+  <si>
+    <t>Evaluation Model (Done)</t>
+  </si>
+  <si>
+    <t>New Model 2 (Done)</t>
+  </si>
+  <si>
+    <t>Build Web Flask (Done)</t>
+  </si>
+  <si>
+    <t>Final Web(On-Going)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,22 +123,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -205,6 +148,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D6818763-6DCA-45C0-AAEA-8A98650A6E8B}" name="Table4" displayName="Table4" ref="B2:H4" totalsRowShown="0">
+  <autoFilter ref="B2:H4" xr:uid="{D6818763-6DCA-45C0-AAEA-8A98650A6E8B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{9F52654F-58CF-496C-A68C-13CFADDF6EA3}" name="JOBDESC ANGGOTA" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5C6287ED-DF23-4C14-816C-24E3689D5734}" name="Pertemuan 1"/>
+    <tableColumn id="3" xr3:uid="{107D430D-BCF2-47A6-B701-BEC838FD6687}" name="Pertemuan 2"/>
+    <tableColumn id="4" xr3:uid="{6C782931-7050-4648-92B7-858FCD7174B0}" name="Pertemuan 3"/>
+    <tableColumn id="5" xr3:uid="{F1EC5B7A-1B79-475A-8DB9-0D505D55A63D}" name="Pertemuan 4"/>
+    <tableColumn id="6" xr3:uid="{82E89EC7-B75A-48A1-8196-18716D3E4F8F}" name="Pertemuan 5"/>
+    <tableColumn id="7" xr3:uid="{BDA54CCF-9EC1-46E6-A3C7-AD395BB77FB3}" name="Pertemuan 6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,66 +428,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H4" sqref="B2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-  </mergeCells>
+  <conditionalFormatting sqref="B2:H4">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6A9D7707-E4B9-42C2-969B-D18369F2B307}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6A9D7707-E4B9-42C2-969B-D18369F2B307}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:H4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>